--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">9c292ec3-be6d-4776-8731-a78aa7569d90</t>
+  </si>
   <si>
     <t xml:space="preserve">Меню</t>
   </si>
@@ -28,100 +31,151 @@
     <t xml:space="preserve">Основное меню</t>
   </si>
   <si>
+    <t xml:space="preserve">c24fa3f6-4b1f-42ac-af67-9d3c00cf7ecd</t>
+  </si>
+  <si>
     <t xml:space="preserve">Холодные закуски</t>
   </si>
   <si>
     <t xml:space="preserve">К пиву</t>
   </si>
   <si>
+    <t xml:space="preserve">9fce2b11-1069-4691-b348-9e286cb5a7ea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сельдь Бисмарк</t>
   </si>
   <si>
     <t xml:space="preserve">Традиционное немецкое блюдо из маринованной сельди</t>
   </si>
   <si>
+    <t xml:space="preserve">252bc1c3-76ad-4270-8d31-47bc82f3c488</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мясная тарелка</t>
   </si>
   <si>
     <t xml:space="preserve">Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
+    <t xml:space="preserve">3ae51086-f787-42fb-9de6-91614563eb6c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рыбная тарелка</t>
   </si>
   <si>
     <t xml:space="preserve">Нарезка из креветок, кальмаров, раковых шеек, гребешков, лосося, скумбрии и красной икры</t>
   </si>
   <si>
+    <t xml:space="preserve">26e033c5-5bcd-469a-84d9-68cc54091894</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рамен</t>
   </si>
   <si>
     <t xml:space="preserve">Горячий рамен</t>
   </si>
   <si>
+    <t xml:space="preserve">f465efd4-2fbf-4dcc-b39d-a7344efcf92c</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дайзу рамен</t>
   </si>
   <si>
     <t xml:space="preserve">Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
   </si>
   <si>
+    <t xml:space="preserve">045b594a-5649-4513-a3e7-c1838a1353ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Унаги рамен</t>
   </si>
   <si>
     <t xml:space="preserve">Рамен на нежном сливочном рыбном бульоне, с добавлением маринованного угря, грибов муэр, кунжута, зеленого лука</t>
   </si>
   <si>
+    <t xml:space="preserve">18c69baf-b1dc-479d-b338-b04a1fb4be1e</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чиизу Рамен</t>
   </si>
   <si>
     <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
   </si>
   <si>
+    <t xml:space="preserve">8cd3ab5d-345c-49d9-b78f-45cb85d1e962</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алкогольное меню</t>
   </si>
   <si>
     <t xml:space="preserve">Алкогольные напитки</t>
   </si>
   <si>
+    <t xml:space="preserve">fbc86a31-1fa4-493f-8871-9e0192e6a5b3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Красные вина</t>
   </si>
   <si>
     <t xml:space="preserve">Для романтичного вечера</t>
   </si>
   <si>
+    <t xml:space="preserve">64c43cae-1721-4617-be97-23a62b1074d7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Шемен де Пап ля Ноблесс</t>
   </si>
   <si>
     <t xml:space="preserve">Вино красное — фруктовое, среднетелое, выдержанное в дубе</t>
   </si>
   <si>
+    <t xml:space="preserve">5b584494-0190-490f-85f1-5df20f674481</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рипароссо Монтепульчано</t>
   </si>
   <si>
     <t xml:space="preserve">Вино красное, сухое</t>
   </si>
   <si>
+    <t xml:space="preserve">75dea70b-6788-4ee1-ab0e-5aedc27629e2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кьянти, Серристори</t>
   </si>
   <si>
     <t xml:space="preserve">Вино красное — элегантное, комплексное, не выдержанное в дубе</t>
   </si>
   <si>
+    <t xml:space="preserve">8772341f-f7fe-4273-aa22-0ca3fdcd68a5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Виски</t>
   </si>
   <si>
     <t xml:space="preserve">Для интересных бесед</t>
   </si>
   <si>
+    <t xml:space="preserve">4a092eda-a718-46b2-97f0-a65290b564e8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Джемисон</t>
   </si>
   <si>
     <t xml:space="preserve">Классический купажированный виски, проходящий 4-хлетнюю выдержку в дубовых бочках</t>
   </si>
   <si>
+    <t xml:space="preserve">250d9783-ed01-465d-9257-4be2fb893436</t>
+  </si>
+  <si>
     <t xml:space="preserve">Джек Дэниелс</t>
   </si>
   <si>
     <t xml:space="preserve">Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98018cfd-4190-464f-beae-3989bcd7b555</t>
   </si>
   <si>
     <t xml:space="preserve">Чивас Ригал</t>
@@ -138,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -160,6 +214,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -219,45 +281,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -269,6 +327,94 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -452,61 +598,60 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="77.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="30.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="77.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="n">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>182.99</v>
       </c>
       <c r="G3" s="7" t="n">
@@ -514,18 +659,18 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>215.36</v>
       </c>
       <c r="G4" s="7" t="n">
@@ -533,18 +678,18 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>265.57</v>
       </c>
       <c r="G5" s="7" t="n">
@@ -552,33 +697,33 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>166.47</v>
       </c>
       <c r="G7" s="7" t="n">
@@ -586,18 +731,18 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>168.25</v>
       </c>
       <c r="G8" s="7" t="n">
@@ -605,18 +750,18 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>132.88</v>
       </c>
       <c r="G9" s="7" t="n">
@@ -624,48 +769,48 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>2700.79</v>
       </c>
       <c r="G12" s="7" t="n">
@@ -673,18 +818,18 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>3100.33</v>
       </c>
       <c r="G13" s="7" t="n">
@@ -692,18 +837,18 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>1850.42</v>
       </c>
       <c r="G14" s="7" t="n">
@@ -711,33 +856,33 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>420.78</v>
       </c>
       <c r="G16" s="7" t="n">
@@ -745,18 +890,18 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>440.11</v>
       </c>
       <c r="G17" s="7" t="n">
@@ -764,18 +909,18 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>520.08</v>
       </c>
       <c r="G18" s="7" t="n">
@@ -1765,6 +1910,12 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="C3:C5 C13">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1 B2 B6 C7:C9 A10 B11:B15 C12 C14 C16:C18">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
